--- a/saved_model/specs/1_h.xlsx
+++ b/saved_model/specs/1_h.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>delay</t>
   </si>
@@ -74,6 +74,30 @@
   </si>
   <si>
     <t>34%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>57%</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -761,6 +785,356 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.5354284020160095</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.5463673951565269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5840163934426229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.6717557251908397</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.5683646112600537</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0.8</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.5524861878453039</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.5604743083003952</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.5536585365853659</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18">
+        <v>0.05</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.5494137353433836</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.5514705882352942</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
